--- a/Final Paper/Comparison Table.xlsx
+++ b/Final Paper/Comparison Table.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07c9239cf8ef362/4th Year Sem2/EG4012/Matlab GUI Thesis/Matlab-GUI-Thesis/Final Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="5317D6875B4462F98844B3014096D562A4FC8AAC" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{8CFBC9C0-C356-46C0-92B4-00AB74EBCEE7}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="5317D6875B4462F98844B3014096D562A4FC8AAC" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{321586CE-BEED-4E7D-AA10-2D299E267D36}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductComparison (2)" sheetId="12" r:id="rId1"/>
-    <sheet name="ProductComparison" sheetId="11" r:id="rId2"/>
-    <sheet name="Help" sheetId="2" r:id="rId3"/>
+    <sheet name="ProductComparison (3)" sheetId="13" r:id="rId1"/>
+    <sheet name="ProductComparison (2)" sheetId="12" r:id="rId2"/>
+    <sheet name="ProductComparison" sheetId="11" r:id="rId3"/>
+    <sheet name="Help" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ProductComparison!$A$1:$G$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ProductComparison (2)'!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ProductComparison!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ProductComparison (2)'!$A$1:$E$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ProductComparison (3)'!$A$1:$E$25</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"feature-comparison.xlsx"</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="128">
   <si>
     <t>HELP</t>
   </si>
@@ -402,6 +404,24 @@
   </si>
   <si>
     <t>Outputs</t>
+  </si>
+  <si>
+    <t>Prompted Entry</t>
+  </si>
+  <si>
+    <t>Finance Outputs</t>
+  </si>
+  <si>
+    <t>Daily/Monthly Produciton Graph</t>
+  </si>
+  <si>
+    <t>Production Outputs</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Plot of Yearly Solar Savings</t>
   </si>
 </sst>
 </file>
@@ -412,7 +432,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0\ &quot;GB&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,13 +580,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color rgb="FF00B050"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,8 +729,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -737,6 +779,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -746,7 +833,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1032,9 +1119,6 @@
     <xf numFmtId="164" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,6 +1127,61 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1050,7 +1189,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="41">
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1459,6 +1601,206 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <color theme="1"/>
       </font>
@@ -1526,11 +1868,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="totalRow" dxfId="26"/>
-      <tableStyleElement type="firstColumn" dxfId="25"/>
-      <tableStyleElement type="lastColumn" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
+      <tableStyleElement type="totalRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="lastColumn" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1600,29 +1942,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEA80E19-B115-4056-88DE-52944BD49752}" name="Table13423" displayName="Table13423" ref="A3:E44" headerRowDxfId="10" dataDxfId="9">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{902D8989-BA26-429C-8D63-84F54D729967}" name="FEATURES" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{10A355FE-7D1F-49B0-8ACA-1B9A14C72955}" name="The Solar Solution" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{148D7756-D0DF-4232-8C7E-D44796A7E4AD}" name="Solar Power Calculator" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{F31549BA-163B-4D40-BB3A-77F2D7DAEB14}" name="Solar Choice" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{E4C89B09-62DD-43F3-ABCE-119443F63E34}" name="Solar Savings" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64F0368C-A621-4094-9DFE-ECE20E19140E}" name="Table134234" displayName="Table134234" ref="A3:F130" headerRowDxfId="11" dataDxfId="10">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DCF214CF-4DCB-4F8A-85C4-BC1A7DAF2C3A}" name="FEATURES" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{4FDA35BD-BFB6-4494-8228-2A2E0CDDD289}" name="The Solar Solution" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FEAA5A23-B897-4F32-A233-F59CEE9D0043}" name="Solar Choice" dataDxfId="5" totalsRowDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{8D98A8DC-B3E4-4316-8103-7D1D082601F3}" name="Solar Power Calculator" dataDxfId="3" totalsRowDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{EEAD0DA8-C97D-4805-8DA2-BCD305A89043}" name="Solar Savings" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AB348F1E-34D2-4FA9-B9FF-CC290D8E7AAB}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1342" displayName="Table1342" ref="A3:G26" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEA80E19-B115-4056-88DE-52944BD49752}" name="Table13423" displayName="Table13423" ref="A3:E45" headerRowDxfId="35" dataDxfId="34">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{902D8989-BA26-429C-8D63-84F54D729967}" name="FEATURES" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{10A355FE-7D1F-49B0-8ACA-1B9A14C72955}" name="The Solar Solution" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{148D7756-D0DF-4232-8C7E-D44796A7E4AD}" name="Solar Power Calculator" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{F31549BA-163B-4D40-BB3A-77F2D7DAEB14}" name="Solar Choice" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{E4C89B09-62DD-43F3-ABCE-119443F63E34}" name="Solar Savings" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1342" displayName="Table1342" ref="A3:G26" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A3:G26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FEATURES" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PRODUCT NAME 1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PRODUCT NAME 2" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRODUCT NAME 3" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PRODUCT NAME 4" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PRODUCT NAME 5" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PRODUCT NAME 6" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FEATURES" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PRODUCT NAME 1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PRODUCT NAME 2" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRODUCT NAME 3" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PRODUCT NAME 4" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PRODUCT NAME 5" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PRODUCT NAME 6" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1890,14 +2246,3535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C04306-49DD-40B1-9C32-B1ACD70D54A0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q131"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.69921875" customWidth="1"/>
+    <col min="2" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="37.69921875" customWidth="1"/>
+    <col min="8" max="11" width="13.19921875" customWidth="1"/>
+    <col min="13" max="13" width="37.69921875" customWidth="1"/>
+    <col min="14" max="17" width="13.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="G4" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="M4" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="M11" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="M12" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="M13" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="M14" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="M15" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="M16" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="M17" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="M18" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="M19" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="117"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="M20" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:17" s="11" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="117">
+        <v>0</v>
+      </c>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:17" s="11" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="117">
+        <v>0</v>
+      </c>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:17" s="11" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="117">
+        <v>30</v>
+      </c>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:17" s="11" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="117">
+        <v>85</v>
+      </c>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="117">
+        <v>5</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+    </row>
+    <row r="28" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="117">
+        <v>6747</v>
+      </c>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+    </row>
+    <row r="29" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="117">
+        <v>6.5</v>
+      </c>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+    </row>
+    <row r="30" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+    </row>
+    <row r="31" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+    </row>
+    <row r="32" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+    </row>
+    <row r="33" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+    </row>
+    <row r="35" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+    </row>
+    <row r="36" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="117"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+    </row>
+    <row r="37" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="117"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+    </row>
+    <row r="38" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="117"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+    </row>
+    <row r="39" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="117"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+    </row>
+    <row r="41" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="117"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+    </row>
+    <row r="42" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="117"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+    </row>
+    <row r="44" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="117"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="117"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="117"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="117"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="117"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="117"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="117"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="117"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="117"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="117"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="117"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="117"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="117"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="117"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="117"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="117"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="117"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="117"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="117"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="117"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="117"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="117"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="117"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="117"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="117"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="117"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="117"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="117"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="117"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="117"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="117"/>
+      <c r="E74" s="117"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="117"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="117"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="117"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="117"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="117"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="117"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="117"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="117"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
+      <c r="F81" s="117"/>
+      <c r="G81" s="117"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="117"/>
+      <c r="B82" s="117"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="117"/>
+      <c r="G82" s="117"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="117"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="117"/>
+      <c r="B84" s="117"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="117"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="117"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="117"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="117"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="117"/>
+      <c r="B89" s="117"/>
+      <c r="C89" s="117"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="117"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="117"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="117"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="117"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="117"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="117"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="117"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="117"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="117"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+      <c r="G94" s="117"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="117"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="117"/>
+      <c r="D95" s="117"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+      <c r="G95" s="117"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="117"/>
+      <c r="B96" s="117"/>
+      <c r="C96" s="117"/>
+      <c r="D96" s="117"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="117"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="117"/>
+      <c r="B97" s="117"/>
+      <c r="C97" s="117"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+      <c r="G97" s="117"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="117"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="117"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="117"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="117"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="117"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="117"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="117"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="117"/>
+      <c r="F101" s="117"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="117"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
+      <c r="F102" s="117"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="117"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="117"/>
+      <c r="E103" s="117"/>
+      <c r="F103" s="117"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="117"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="117"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="117"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="117"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="117"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="117"/>
+      <c r="F107" s="117"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="117"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="117"/>
+      <c r="D108" s="117"/>
+      <c r="E108" s="117"/>
+      <c r="F108" s="117"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="117"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="117"/>
+      <c r="D109" s="117"/>
+      <c r="E109" s="117"/>
+      <c r="F109" s="117"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="117"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="117"/>
+      <c r="D110" s="117"/>
+      <c r="E110" s="117"/>
+      <c r="F110" s="117"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="117"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="117"/>
+      <c r="D111" s="117"/>
+      <c r="E111" s="117"/>
+      <c r="F111" s="117"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="117"/>
+      <c r="B112" s="117"/>
+      <c r="C112" s="117"/>
+      <c r="D112" s="117"/>
+      <c r="E112" s="117"/>
+      <c r="F112" s="117"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="117"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
+      <c r="F113" s="117"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="117"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="117"/>
+      <c r="D114" s="117"/>
+      <c r="E114" s="117"/>
+      <c r="F114" s="117"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="117"/>
+      <c r="B115" s="117"/>
+      <c r="C115" s="117"/>
+      <c r="D115" s="117"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="117"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="117"/>
+      <c r="B116" s="117"/>
+      <c r="C116" s="117"/>
+      <c r="D116" s="117"/>
+      <c r="E116" s="117"/>
+      <c r="F116" s="117"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="117"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="117"/>
+      <c r="D117" s="117"/>
+      <c r="E117" s="117"/>
+      <c r="F117" s="117"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="117"/>
+      <c r="B118" s="117"/>
+      <c r="C118" s="117"/>
+      <c r="D118" s="117"/>
+      <c r="E118" s="117"/>
+      <c r="F118" s="117"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="117"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="117"/>
+      <c r="D119" s="117"/>
+      <c r="E119" s="117"/>
+      <c r="F119" s="117"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="117"/>
+      <c r="B120" s="117"/>
+      <c r="C120" s="117"/>
+      <c r="D120" s="117"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="117"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="117"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="117"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="117"/>
+      <c r="B122" s="117"/>
+      <c r="C122" s="117"/>
+      <c r="D122" s="117"/>
+      <c r="E122" s="117"/>
+      <c r="F122" s="117"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="117"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="117"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="117"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="117"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="117"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="117"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="117"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="117"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E18 H13:K19 H5:K10 N5:Q20" xr:uid="{7FDA81A1-E629-4A79-BD80-3AB2E916F467}">
+      <formula1>"✔, 🗶, ✗, ✘, ☐, ☑, ☒,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0">
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9&amp;K01+044https://www.vertex42.com/ExcelTemplates/feature-comparison.html&amp;R&amp;"Arial,Regular"&amp;9&amp;K01+044© 2017 by Vertex42.com</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="149" id="{2A577F61-EA19-43A1-BBBA-7F4063F334D3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="148" id="{DC37063E-4ED9-48FD-A975-3F082FC09D28}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="146" id="{F02721B4-9CA8-41DE-BDBF-E3831A7B87FF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="147" id="{D03E5F82-3394-4E01-BB73-E3BB542B077B}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="145" id="{3B38A1B8-30C9-405B-9EE1-8BF08E6E5648}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="144" id="{C4BE7E2A-E54D-4B87-A58E-FFCEDF1867DF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C6:C11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="143" id="{226D29B0-E5F9-44A7-A2C0-96FDE78E6274}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="142" id="{CD84585D-319C-4EE1-88AC-2FB4E1BE1E1A}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="141" id="{97C9E06A-A53A-4835-9F6A-D53AAE041865}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="140" id="{871F2221-458F-407F-8CD2-D1DB14C95B8E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C16:C17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="139" id="{E69388BB-3855-4F47-A802-320088A25E3F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C12:C15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="138" id="{E28E4DB8-8044-4EEF-A6AD-F88F84FC7456}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="78" id="{6E0BD7BA-3B45-4029-B64F-8EC1982EA37F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K8 K10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="77" id="{721CFB8B-3159-4569-A9EB-A01BEA209BB8}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="76" id="{87C5B9F7-18B4-4311-B7EE-4F65817B7E62}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="75" id="{4846C778-EBC8-48C5-8BE1-DC2A6936D146}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="74" id="{DE4480B7-EED2-4DF2-8EA9-6F4836043916}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="73" id="{9E71A322-A049-46A9-9431-74B1E6DD5C75}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="60" id="{ED642B6A-0405-4A9C-A8F4-94C427B2111D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="72" id="{6546826A-99DE-462C-ABB8-78B3F9194DA3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="71" id="{A0ABB621-A1C8-46EA-A1A6-0170BECC1602}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="69" id="{38D68707-37FC-403C-B58D-511402AC614D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="70" id="{74495E70-89EA-4E1F-BA43-BCF6D0568E09}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="68" id="{FD5E5EF1-FF1F-424D-9A6A-ECB82FA59F0C}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="67" id="{E458919C-24D0-437E-B652-1294AD27FE38}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I6:I8 I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="66" id="{EF1A9DAE-8A2F-4BFA-A172-415085F0C5E6}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="65" id="{D3BC272B-E42F-4237-B7A8-F1E294AE8445}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="64" id="{C5A120CE-A1C2-4A8D-8D00-F2B28F51EE99}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="63" id="{3CB4AD0F-414F-466E-A1C2-DDD628A084F7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="62" id="{7BA4405C-85B2-401F-AD33-CE67C9FAF30F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="61" id="{6EC72338-18EA-4732-A95B-75FD46EAF6AF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K16:K17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="59" id="{DB913234-1C84-43D5-B425-32D4DBFF6FD0}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="58" id="{D0DDA924-7352-40DF-A6A6-EEB8479ADCBA}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="57" id="{98C1B69A-04A1-4D2A-B62A-23083C9745F8}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="55" id="{48CDF254-ACBD-48B3-84AA-B81F70CDFF8E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="56" id="{7EDE30AE-1F37-4EA2-92FC-2F32BF540B38}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="54" id="{16E0844C-8378-4C8C-95DC-7A36FDF44861}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="53" id="{48E8F60F-44B9-47B9-A3BC-142A4775A3C9}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14:I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="52" id="{B509F2E2-B793-455F-80BE-020E37B5A8E6}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="51" id="{4271AE60-FAB3-4760-AC3E-F5350C4C3ACF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="50" id="{8143EB81-6383-4152-AFF2-EE336B6AE3F1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="49" id="{02A04802-54AB-4CB0-8C93-DCA541DBED60}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="48" id="{CCA7E0E4-AEB4-43F2-8191-F019DA02B714}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="47" id="{075688E6-1FA7-48FA-A798-F5B819074DFE}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="172" id="{D4F5EA2B-BCD9-4D4C-BFA7-45CFA3E203F3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E8:E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="173" id="{EB9AB4F4-0C2D-4B0F-B6E4-8A069C928A50}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="174" id="{CE15FF2D-CA19-42D5-A632-3184BB202455}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E16:E17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="175" id="{051553CB-2F0B-48F4-98B3-5993B9E8BD25}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E14:E15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="176" id="{C131B104-2EC9-49C7-9632-57FD27701900}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="177" id="{616A187D-1154-4B4B-9645-F5A67412E802}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="178" id="{0AF1E9DB-867E-4B9C-AFB0-50A2679C2C7E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="179" id="{91E0A717-129C-45EE-B5C5-034A81F5E63E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="180" id="{AB20CA65-9EE2-4727-B682-43A7D42B7833}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="181" id="{ACCAEDF9-0B12-4326-8D30-2FC21EC99A15}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="46" id="{1716496F-390B-461A-AF01-23F3BCCBD0C9}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="45" id="{E8246600-E297-4531-BA39-FF49E5415E41}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="40" id="{87217C31-A38F-43C8-B964-A1AB50F2CDA0}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="44" id="{8C80A25F-140D-4D4E-8CA6-3C8BF43A1E8F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="43" id="{AC1D56D4-8FB6-4848-81B6-3672D052EB44}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="42" id="{4724898F-B228-4417-8296-1B327280D1C8}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="41" id="{7B51D762-FD85-4428-9789-8552AA0278E1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q8:Q9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="39" id="{A7388D89-99B4-4EA7-A63E-9855EFE9BFF1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="38" id="{3F087F6E-82C6-4E7B-A404-DB5F41F8B42E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="37" id="{9BBB432B-A8D1-4BD3-80E6-DB9F7A6F3FB4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="35" id="{E755992E-8D11-41BA-9F54-4887B3D57A95}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="36" id="{38B59A94-269F-4124-AFDA-4D52DE8B2E8E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="34" id="{98BC75E8-07F3-4916-B45E-9C0986257D88}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="33" id="{8C9E26DD-17F3-4290-B62F-0ABCE226B0CD}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O6:O9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="32" id="{912B2A16-334D-47B7-9FA1-0F11AAC90B4B}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="31" id="{47959B82-F793-432B-ADB3-249C7CF92380}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="30" id="{BE4FD995-1214-41D5-9ACD-D61E8D059FD7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="29" id="{D3980FF1-2299-46C9-9747-C52C7B25B727}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="28" id="{47B6ADEF-EA99-4B12-9428-4E6C4C2713A3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{10951062-12D4-4426-9ACC-9481A397AA03}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="27" id="{91D2F304-AA61-411A-A36D-7C148063F997}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="26" id="{2C07619B-27F1-4377-88AC-781E27FEB4DF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{33AD3B72-C179-4C00-9F38-A9440FA08241}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{001AFB73-19F4-49F5-B97D-3531706C443A}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q15:Q16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{E472C77D-484D-4A01-B80A-4EC0D17DC3C8}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{305A369E-E4AE-47E3-81D7-3AB008C5C36F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{02A89CAF-2669-46FE-961E-0999DFB6958F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{5EFF1267-FB0C-4F71-8F09-8CA766AD3655}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="19" id="{6DDCE232-44DE-401A-AD5D-DAD70628A6CF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{8C72577B-A9A3-47CF-8740-83FAAA75A652}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{284969BA-254D-4FDC-92A1-5472B15EFAD7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O13:O16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{0DAEC815-C3AC-442F-92A3-DF8799681920}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{08240CB0-2082-4CCF-8AC7-BF30569ABB30}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{699BDF59-541A-48A8-848A-54B1106B8BD5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{7E5E4661-CD5E-4B2E-A320-0C235AFA1A10}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{81403752-0B45-493A-81C1-3F91643D9EFD}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{483AC35E-02F4-4194-8112-94E441CC2A52}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{F49CD4EB-54C9-4D08-974D-F4854D52697B}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{5BBF7D87-99BD-426C-8061-1EA66AEBFBB6}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AED252-4ED0-46F9-A2A5-52BA3D7E9912}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1952,15 +5829,15 @@
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="99" t="s">
+      <c r="C5" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="98" t="s">
         <v>113</v>
       </c>
       <c r="E5" s="94" t="s">
@@ -1969,15 +5846,15 @@
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="97" t="s">
+      <c r="C6" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="115" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="94" t="s">
@@ -1989,24 +5866,24 @@
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>65</v>
+      <c r="D7" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="95" t="s">
         <v>65</v>
@@ -2014,33 +5891,33 @@
       <c r="C8" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="100" t="s">
+      <c r="D8" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="99" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B9" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="100" t="s">
+      <c r="D9" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="99" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="95" t="s">
         <v>65</v>
@@ -2048,28 +5925,28 @@
       <c r="C10" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="100" t="s">
+      <c r="D10" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="99" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>113</v>
+      <c r="C11" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>65</v>
       </c>
       <c r="G11" s="63" t="s">
         <v>64</v>
@@ -2077,7 +5954,7 @@
     </row>
     <row r="12" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="95" t="s">
         <v>65</v>
@@ -2085,24 +5962,24 @@
       <c r="C12" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="94" t="s">
         <v>113</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="97" t="s">
+      <c r="C13" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="115" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="94" t="s">
@@ -2114,7 +5991,7 @@
     </row>
     <row r="14" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="95" t="s">
         <v>65</v>
@@ -2122,16 +5999,16 @@
       <c r="C14" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>113</v>
+      <c r="D14" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B15" s="95" t="s">
         <v>65</v>
@@ -2139,106 +6016,108 @@
       <c r="C15" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>113</v>
+      <c r="D15" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="94" t="s">
-        <v>113</v>
+      <c r="C16" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>113</v>
+      </c>
       <c r="G18" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="56">
-        <v>30</v>
-      </c>
-      <c r="C19" s="29">
-        <v>25</v>
-      </c>
-      <c r="D19" s="22">
-        <v>15</v>
-      </c>
-      <c r="E19" s="42">
-        <v>5</v>
-      </c>
+      <c r="A19" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
       <c r="G19" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="57">
-        <v>128</v>
-      </c>
-      <c r="C20" s="31">
-        <v>64</v>
-      </c>
-      <c r="D20" s="24">
-        <v>256</v>
-      </c>
-      <c r="E20" s="43">
-        <v>32</v>
+      <c r="B20" s="56">
+        <v>30</v>
+      </c>
+      <c r="C20" s="29">
+        <v>25</v>
+      </c>
+      <c r="D20" s="22">
+        <v>15</v>
+      </c>
+      <c r="E20" s="42">
+        <v>5</v>
       </c>
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="56">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="C21" s="29">
-        <v>1.23</v>
-      </c>
-      <c r="D21" s="22">
-        <v>5</v>
-      </c>
-      <c r="E21" s="42">
-        <v>1.54</v>
+      <c r="B21" s="57">
+        <v>128</v>
+      </c>
+      <c r="C21" s="31">
+        <v>64</v>
+      </c>
+      <c r="D21" s="24">
+        <v>256</v>
+      </c>
+      <c r="E21" s="43">
+        <v>32</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>50</v>
@@ -2246,75 +6125,81 @@
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>47</v>
+      <c r="B22" s="56">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1.23</v>
+      </c>
+      <c r="D22" s="22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1.54</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>29</v>
+      <c r="B23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="58" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="59" t="s">
-        <v>38</v>
+      <c r="B25" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="66"/>
+      <c r="B26" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:7" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="A27" s="10"/>
       <c r="B27" s="64"/>
       <c r="C27" s="30"/>
       <c r="D27" s="23"/>
@@ -2322,16 +6207,16 @@
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="90"/>
+        <v>95</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="66"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -2340,16 +6225,16 @@
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -2358,7 +6243,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
@@ -2367,7 +6252,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -2376,7 +6261,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -2385,7 +6270,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -2394,7 +6279,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -2403,7 +6288,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
@@ -2412,7 +6297,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
@@ -2421,7 +6306,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
@@ -2430,7 +6315,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
@@ -2439,7 +6324,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -2448,7 +6333,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
@@ -2457,7 +6342,7 @@
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
@@ -2466,16 +6351,25 @@
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="11"/>
     </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="11"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2488,30 +6382,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="5Quarters" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="4"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="5Rating" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="4"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19">
-    <cfRule type="dataBar" priority="72">
+  <conditionalFormatting sqref="B20:D20">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2524,20 +6396,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="3Symbols2" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E17" xr:uid="{2E2CAEEF-668E-415D-93E3-9DD8E39F35C8}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E18" xr:uid="{2E2CAEEF-668E-415D-93E3-9DD8E39F35C8}">
       <formula1>"✔, 🗶, ✗, ✘, ☐, ☑, ☒,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B22:E22" xr:uid="{A729B31B-A08F-4BCA-B61D-9CC692AEDD28}">
+    <dataValidation type="list" allowBlank="1" sqref="B23:E23" xr:uid="{A729B31B-A08F-4BCA-B61D-9CC692AEDD28}">
       <formula1>"Yes,No,na"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2561,26 +6424,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{2CAFA1B8-F001-427B-8615-0CEAD4586EE9}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>D8</xm:sqref>
+          <xm:sqref>E20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{185276B4-BD6E-4D4E-ABC0-71A5668E273A}">
@@ -2591,26 +6435,219 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B19:D19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="75" id="{07909EA3-09E8-4BE9-BD58-94FD3545127C}">
-            <x14:iconSet iconSet="3Stars" showValue="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="77" id="{81D8385E-42BF-45CB-A871-EBCA97A07534}">
+          <xm:sqref>B20:D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="43" id="{02B3C50C-2952-4F97-AAD3-76816880A1B5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E8:E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{E9478A05-A9CA-4DD8-85BD-9C8EE12214F3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{5EBABE51-7145-457F-A2CF-2D6C5E6D9B63}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{E151C0DB-29CD-4BC2-97FC-D05B419358C9}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{EBACE24F-17DA-4725-AB33-A64375E261CF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="19" id="{4E11F2F3-D858-447C-99A1-64C61126E31A}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{C6276347-ED8A-4D75-A999-900E9AA8A116}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{64B2BEC6-29E2-4F26-BE25-C20C4468D1A2}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E16:E17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{7A69B412-5B05-403F-8653-01E3F667609F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E14:E15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{E2EE1250-0DCD-4B10-B672-F6A783BCA6C3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{358ED42B-9B2D-4782-BF6C-04457CF21D81}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D6:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{465C3BCD-D635-4581-B05F-37E099246D5F}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2629,26 +6666,102 @@
           <xm:sqref>D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{02B3C50C-2952-4F97-AAD3-76816880A1B5}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E7:E10 E12 E17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{79B82929-2794-4212-82D4-CF4C949F792B}">
+          <x14:cfRule type="iconSet" priority="12" id="{090FD237-7D2C-4833-8849-D2E6E3441D6D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{93E29B80-186E-4D43-80DC-3344636DDA56}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{9AF94BD3-BF89-4FB9-A832-9A319E99C677}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D16:D17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{08A7A132-B92D-473B-B6B7-E83A761CA7D1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D12:D15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{1C64BC50-CF1B-4B16-8E07-A419B8EE8E2D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{DD06857F-B7D7-4A95-820A-699CA8C40C2E}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2667,159 +6780,64 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{5971501B-FD88-4EBA-904C-E5AEB5DE454E}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{51C5FAEB-2760-4705-A200-C75139CBB55A}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{AB0DD5D7-65B8-4D2E-8B0D-DD22709A655B}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{FBBD4696-60E5-47C1-B5C8-25E55EFA9EA5}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>D12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{5B79EAAA-DD45-471B-A6A8-D8D911AF7F2B}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C9 D16 D10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{7574DA96-1773-4CBC-AE6E-0FAC71A0385A}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{F158BF4B-0F4B-4E17-B4D5-B35CE1522D8F}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>D5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{7E6D632B-66D1-467E-A3AE-40A2C3196552}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{8A9169D2-574B-429D-9914-15DB6E0AAF8E}">
+          <x14:cfRule type="iconSet" priority="6" id="{0D8743AE-CD02-4B1A-8649-61E7CD75005D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{9005051F-2C12-4FF8-8A64-FE0A7DB78DE5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{28816CE0-E98B-415C-A91E-4DACFE4299AA}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{9D32FCFA-89CA-48C6-901A-DD3045411CAC}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2836,82 +6854,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>E11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{B0C8BBA3-5478-4542-B0AD-51B330C015AA}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{BB560F07-D2AA-4DAF-B430-D6F5169EF4E8}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{D6B904BB-5F02-40AD-AC97-C9D9B486F6BC}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{7CC18245-0C6B-4B39-9899-12EE728C8852}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2919,7 +6861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3667,7 +7609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>

--- a/Final Paper/Comparison Table.xlsx
+++ b/Final Paper/Comparison Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07c9239cf8ef362/4th Year Sem2/EG4012/Matlab GUI Thesis/Matlab-GUI-Thesis/Final Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="5317D6875B4462F98844B3014096D562A4FC8AAC" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{321586CE-BEED-4E7D-AA10-2D299E267D36}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="5317D6875B4462F98844B3014096D562A4FC8AAC" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{192F9621-C943-44C6-B717-43DA50ED0B3E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="145">
   <si>
     <t>HELP</t>
   </si>
@@ -412,16 +412,67 @@
     <t>Finance Outputs</t>
   </si>
   <si>
-    <t>Daily/Monthly Produciton Graph</t>
-  </si>
-  <si>
-    <t>Production Outputs</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
     <t>Plot of Yearly Solar Savings</t>
+  </si>
+  <si>
+    <t>Equator tilted</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Townsville</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Daily Storage</t>
+  </si>
+  <si>
+    <t>Total Exported</t>
+  </si>
+  <si>
+    <t>Daily Cost - Standard</t>
+  </si>
+  <si>
+    <t>Daily Cost - Import</t>
+  </si>
+  <si>
+    <t>Daily Cost - Export</t>
+  </si>
+  <si>
+    <t>Daily Cost - Acutal Savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily/Monthly Average Production </t>
+  </si>
+  <si>
+    <t>Daily Energy Sources Analysis</t>
+  </si>
+  <si>
+    <t>Production and Display Outputs</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -833,7 +884,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1179,10 +1230,14 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1942,7 +1997,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64F0368C-A621-4094-9DFE-ECE20E19140E}" name="Table134234" displayName="Table134234" ref="A3:F130" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64F0368C-A621-4094-9DFE-ECE20E19140E}" name="Table134234" displayName="Table134234" ref="A3:F135" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DCF214CF-4DCB-4F8A-85C4-BC1A7DAF2C3A}" name="FEATURES" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
     <tableColumn id="8" xr3:uid="{4FDA35BD-BFB6-4494-8228-2A2E0CDDD289}" name="The Solar Solution" dataDxfId="7"/>
@@ -2250,10 +2305,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q131"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2293,8 +2348,8 @@
       <c r="E3" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="118" t="s">
-        <v>126</v>
+      <c r="F3" s="119" t="s">
+        <v>124</v>
       </c>
       <c r="G3" s="100" t="s">
         <v>11</v>
@@ -2336,7 +2391,7 @@
       <c r="D4" s="93"/>
       <c r="E4" s="93"/>
       <c r="G4" s="105" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="H4" s="106"/>
       <c r="I4" s="107"/>
@@ -2367,7 +2422,7 @@
         <v>113</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" s="109" t="s">
         <v>65</v>
@@ -2414,7 +2469,7 @@
         <v>113</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="109" t="s">
         <v>65</v>
@@ -2461,7 +2516,7 @@
         <v>113</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="H7" s="109" t="s">
         <v>65</v>
@@ -2508,7 +2563,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="108" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="H8" s="109" t="s">
         <v>65</v>
@@ -2555,7 +2610,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="108" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H9" s="109" t="s">
         <v>65</v>
@@ -2602,7 +2657,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="108" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H10" s="109" t="s">
         <v>65</v>
@@ -2648,11 +2703,21 @@
       <c r="E11" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
+      <c r="G11" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="114" t="s">
+        <v>65</v>
+      </c>
       <c r="M11" s="108" t="s">
         <v>101</v>
       </c>
@@ -2685,11 +2750,21 @@
       <c r="E12" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
+      <c r="G12" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>65</v>
+      </c>
       <c r="M12" s="108" t="s">
         <v>102</v>
       </c>
@@ -2722,11 +2797,21 @@
       <c r="E13" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
+      <c r="G13" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>65</v>
+      </c>
       <c r="M13" s="108" t="s">
         <v>103</v>
       </c>
@@ -2759,11 +2844,21 @@
       <c r="E14" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
+      <c r="G14" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="114" t="s">
+        <v>65</v>
+      </c>
       <c r="M14" s="108" t="s">
         <v>104</v>
       </c>
@@ -2796,11 +2891,21 @@
       <c r="E15" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
+      <c r="G15" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="114" t="s">
+        <v>65</v>
+      </c>
       <c r="M15" s="108" t="s">
         <v>105</v>
       </c>
@@ -2929,13 +3034,13 @@
       </c>
     </row>
     <row r="19" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -2957,19 +3062,19 @@
       </c>
     </row>
     <row r="20" spans="1:17" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="M20" s="108" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N20" s="109" t="s">
         <v>65</v>
@@ -2994,10 +3099,10 @@
       <c r="C21" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -3009,10 +3114,10 @@
       </c>
       <c r="B22" s="92"/>
       <c r="C22" s="93"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -3022,14 +3127,14 @@
       <c r="A23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="117">
-        <v>0</v>
-      </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
+      <c r="B23" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -3039,14 +3144,14 @@
       <c r="A24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="117">
-        <v>0</v>
-      </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
+      <c r="B24" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -3056,14 +3161,14 @@
       <c r="A25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="117">
-        <v>30</v>
-      </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
+      <c r="B25" s="120">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -3073,14 +3178,14 @@
       <c r="A26" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="117">
-        <v>85</v>
-      </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
+      <c r="B26" s="118">
+        <v>0.85</v>
+      </c>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -3090,895 +3195,1004 @@
       <c r="A27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="118">
         <v>5</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
     </row>
     <row r="28" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="117">
-        <v>6747</v>
-      </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
+      <c r="B28" s="118">
+        <v>7000</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
     </row>
     <row r="29" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="117">
-        <v>6.5</v>
-      </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
+      <c r="B29" s="118">
+        <v>10</v>
+      </c>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
     </row>
     <row r="30" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
+      <c r="B30" s="118">
+        <v>9700</v>
+      </c>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
+      <c r="B31" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="118"/>
     </row>
     <row r="32" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
+      <c r="B32" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="118"/>
     </row>
     <row r="33" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
+        <v>85</v>
+      </c>
+      <c r="B33" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="118"/>
     </row>
     <row r="34" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
+        <v>88</v>
+      </c>
+      <c r="B34" s="118">
+        <v>3</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="118"/>
     </row>
     <row r="35" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
+        <v>128</v>
+      </c>
+      <c r="B35" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
     </row>
     <row r="36" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
+      <c r="A36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="118">
+        <v>4814</v>
+      </c>
+      <c r="C36" s="118">
+        <v>800</v>
+      </c>
+      <c r="D36" s="118">
+        <v>7000</v>
+      </c>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
     </row>
     <row r="37" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
+      <c r="A37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="118">
+        <v>-19.259</v>
+      </c>
+      <c r="C37" s="118">
+        <v>-12.462999999999999</v>
+      </c>
+      <c r="D37" s="118">
+        <v>-42.882137999999998</v>
+      </c>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
     </row>
     <row r="38" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-    </row>
-    <row r="39" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-    </row>
-    <row r="41" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-    </row>
-    <row r="42" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-    </row>
-    <row r="43" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="117"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="117"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="117"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="117"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="117"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="117"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
+      <c r="A38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="118">
+        <v>146.81700000000001</v>
+      </c>
+      <c r="C38" s="118">
+        <v>130.846</v>
+      </c>
+      <c r="D38" s="118">
+        <v>147.32719499999999</v>
+      </c>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+    </row>
+    <row r="39" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+    </row>
+    <row r="41" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+    </row>
+    <row r="42" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+    </row>
+    <row r="44" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+    </row>
+    <row r="45" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+    </row>
+    <row r="46" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+    </row>
+    <row r="48" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+    </row>
+    <row r="49" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
+      <c r="A51" s="118"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
+      <c r="A52" s="118"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="117"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
+      <c r="A55" s="118"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
+      <c r="A56" s="118"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
+      <c r="A57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
+      <c r="A58" s="118"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
+      <c r="A59" s="118"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="117"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
+      <c r="A60" s="118"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="117"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
+      <c r="A61" s="118"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="117"/>
+      <c r="A62" s="118"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="117"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
+      <c r="A63" s="118"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="117"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
+      <c r="A64" s="118"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="117"/>
-      <c r="B65" s="117"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
+      <c r="A65" s="118"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="117"/>
-      <c r="B66" s="117"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="117"/>
-      <c r="B67" s="117"/>
-      <c r="C67" s="117"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="117"/>
-      <c r="B68" s="117"/>
-      <c r="C68" s="117"/>
-      <c r="D68" s="117"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="118"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="117"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="117"/>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="118"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="117"/>
-      <c r="B71" s="117"/>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
+      <c r="A71" s="118"/>
+      <c r="B71" s="118"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="118"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="117"/>
-      <c r="B72" s="117"/>
-      <c r="C72" s="117"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="117"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="118"/>
+      <c r="C72" s="118"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="118"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="117"/>
-      <c r="B73" s="117"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="118"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="117"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="117"/>
-      <c r="D74" s="117"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="117"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="118"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="117"/>
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="117"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="118"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="117"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
+      <c r="A77" s="118"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="117"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="117"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="117"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
-      <c r="E79" s="117"/>
-      <c r="F79" s="117"/>
-      <c r="G79" s="117"/>
+      <c r="A79" s="118"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="117"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
-      <c r="F80" s="117"/>
-      <c r="G80" s="117"/>
+      <c r="A80" s="118"/>
+      <c r="B80" s="118"/>
+      <c r="C80" s="118"/>
+      <c r="D80" s="118"/>
+      <c r="E80" s="118"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="118"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="117"/>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="117"/>
-      <c r="E81" s="117"/>
-      <c r="F81" s="117"/>
-      <c r="G81" s="117"/>
+      <c r="A81" s="118"/>
+      <c r="B81" s="118"/>
+      <c r="C81" s="118"/>
+      <c r="D81" s="118"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="117"/>
-      <c r="B82" s="117"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="117"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="117"/>
+      <c r="A82" s="118"/>
+      <c r="B82" s="118"/>
+      <c r="C82" s="118"/>
+      <c r="D82" s="118"/>
+      <c r="E82" s="118"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="117"/>
-      <c r="B83" s="117"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
+      <c r="A83" s="118"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="117"/>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="117"/>
+      <c r="A84" s="118"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="117"/>
-      <c r="B85" s="117"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="117"/>
+      <c r="A85" s="118"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="117"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="117"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="117"/>
+      <c r="A86" s="118"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="117"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
-      <c r="G87" s="117"/>
+      <c r="A87" s="118"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="118"/>
+      <c r="G87" s="118"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="117"/>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
-      <c r="G88" s="117"/>
+      <c r="A88" s="118"/>
+      <c r="B88" s="118"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="117"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
+      <c r="A89" s="118"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="117"/>
-      <c r="B90" s="117"/>
-      <c r="C90" s="117"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="117"/>
+      <c r="A90" s="118"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="118"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="117"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
-      <c r="G91" s="117"/>
+      <c r="A91" s="118"/>
+      <c r="B91" s="118"/>
+      <c r="C91" s="118"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="117"/>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="117"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="117"/>
+      <c r="A92" s="118"/>
+      <c r="B92" s="118"/>
+      <c r="C92" s="118"/>
+      <c r="D92" s="118"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="118"/>
+      <c r="G92" s="118"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="117"/>
-      <c r="B93" s="117"/>
-      <c r="C93" s="117"/>
-      <c r="D93" s="117"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="117"/>
-      <c r="G93" s="117"/>
+      <c r="A93" s="118"/>
+      <c r="B93" s="118"/>
+      <c r="C93" s="118"/>
+      <c r="D93" s="118"/>
+      <c r="E93" s="118"/>
+      <c r="F93" s="118"/>
+      <c r="G93" s="118"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
-      <c r="B94" s="117"/>
-      <c r="C94" s="117"/>
-      <c r="D94" s="117"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
-      <c r="G94" s="117"/>
+      <c r="A94" s="118"/>
+      <c r="B94" s="118"/>
+      <c r="C94" s="118"/>
+      <c r="D94" s="118"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="118"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="117"/>
-      <c r="B95" s="117"/>
-      <c r="C95" s="117"/>
-      <c r="D95" s="117"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="117"/>
-      <c r="G95" s="117"/>
+      <c r="A95" s="118"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="118"/>
+      <c r="D95" s="118"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="118"/>
+      <c r="G95" s="118"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="117"/>
-      <c r="B96" s="117"/>
-      <c r="C96" s="117"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="117"/>
+      <c r="A96" s="118"/>
+      <c r="B96" s="118"/>
+      <c r="C96" s="118"/>
+      <c r="D96" s="118"/>
+      <c r="E96" s="118"/>
+      <c r="F96" s="118"/>
+      <c r="G96" s="118"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="117"/>
-      <c r="B97" s="117"/>
-      <c r="C97" s="117"/>
-      <c r="D97" s="117"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
-      <c r="G97" s="117"/>
+      <c r="A97" s="118"/>
+      <c r="B97" s="118"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="117"/>
-      <c r="B98" s="117"/>
-      <c r="C98" s="117"/>
-      <c r="D98" s="117"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="117"/>
+      <c r="A98" s="118"/>
+      <c r="B98" s="118"/>
+      <c r="C98" s="118"/>
+      <c r="D98" s="118"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="118"/>
+      <c r="G98" s="118"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="117"/>
-      <c r="B99" s="117"/>
-      <c r="C99" s="117"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="117"/>
+      <c r="A99" s="118"/>
+      <c r="B99" s="118"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="118"/>
+      <c r="F99" s="118"/>
+      <c r="G99" s="118"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="117"/>
-      <c r="B100" s="117"/>
-      <c r="C100" s="117"/>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
+      <c r="A100" s="118"/>
+      <c r="B100" s="118"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="118"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="117"/>
-      <c r="B101" s="117"/>
-      <c r="C101" s="117"/>
-      <c r="D101" s="117"/>
-      <c r="E101" s="117"/>
-      <c r="F101" s="117"/>
+      <c r="A101" s="118"/>
+      <c r="B101" s="118"/>
+      <c r="C101" s="118"/>
+      <c r="D101" s="118"/>
+      <c r="E101" s="118"/>
+      <c r="F101" s="118"/>
+      <c r="G101" s="118"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="117"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
-      <c r="F102" s="117"/>
+      <c r="A102" s="118"/>
+      <c r="B102" s="118"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="118"/>
+      <c r="F102" s="118"/>
+      <c r="G102" s="118"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="117"/>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="117"/>
-      <c r="E103" s="117"/>
-      <c r="F103" s="117"/>
+      <c r="A103" s="118"/>
+      <c r="B103" s="118"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
+      <c r="G103" s="118"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="117"/>
-      <c r="B104" s="117"/>
-      <c r="C104" s="117"/>
-      <c r="D104" s="117"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
+      <c r="A104" s="118"/>
+      <c r="B104" s="118"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="118"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="117"/>
-      <c r="B105" s="117"/>
-      <c r="C105" s="117"/>
-      <c r="D105" s="117"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
+      <c r="A105" s="118"/>
+      <c r="B105" s="118"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="118"/>
+      <c r="F105" s="118"/>
+      <c r="G105" s="118"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="117"/>
-      <c r="B106" s="117"/>
-      <c r="C106" s="117"/>
-      <c r="D106" s="117"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
+      <c r="A106" s="118"/>
+      <c r="B106" s="118"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="118"/>
+      <c r="F106" s="118"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="117"/>
-      <c r="B107" s="117"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="117"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
+      <c r="A107" s="118"/>
+      <c r="B107" s="118"/>
+      <c r="C107" s="118"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="118"/>
+      <c r="F107" s="118"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="117"/>
-      <c r="B108" s="117"/>
-      <c r="C108" s="117"/>
-      <c r="D108" s="117"/>
-      <c r="E108" s="117"/>
-      <c r="F108" s="117"/>
+      <c r="A108" s="118"/>
+      <c r="B108" s="118"/>
+      <c r="C108" s="118"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="118"/>
+      <c r="F108" s="118"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="117"/>
-      <c r="B109" s="117"/>
-      <c r="C109" s="117"/>
-      <c r="D109" s="117"/>
-      <c r="E109" s="117"/>
-      <c r="F109" s="117"/>
+      <c r="A109" s="118"/>
+      <c r="B109" s="118"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="118"/>
+      <c r="F109" s="118"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="117"/>
-      <c r="B110" s="117"/>
-      <c r="C110" s="117"/>
-      <c r="D110" s="117"/>
-      <c r="E110" s="117"/>
-      <c r="F110" s="117"/>
+      <c r="A110" s="118"/>
+      <c r="B110" s="118"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="118"/>
+      <c r="E110" s="118"/>
+      <c r="F110" s="118"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="117"/>
-      <c r="B111" s="117"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="117"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="117"/>
+      <c r="A111" s="118"/>
+      <c r="B111" s="118"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="118"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="117"/>
-      <c r="B112" s="117"/>
-      <c r="C112" s="117"/>
-      <c r="D112" s="117"/>
-      <c r="E112" s="117"/>
-      <c r="F112" s="117"/>
+      <c r="A112" s="118"/>
+      <c r="B112" s="118"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="118"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="117"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="117"/>
-      <c r="F113" s="117"/>
+      <c r="A113" s="118"/>
+      <c r="B113" s="118"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="118"/>
+      <c r="F113" s="118"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="117"/>
-      <c r="B114" s="117"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="117"/>
-      <c r="E114" s="117"/>
-      <c r="F114" s="117"/>
+      <c r="A114" s="118"/>
+      <c r="B114" s="118"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="118"/>
+      <c r="E114" s="118"/>
+      <c r="F114" s="118"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="117"/>
-      <c r="B115" s="117"/>
-      <c r="C115" s="117"/>
-      <c r="D115" s="117"/>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
+      <c r="A115" s="118"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="118"/>
+      <c r="F115" s="118"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="117"/>
-      <c r="B116" s="117"/>
-      <c r="C116" s="117"/>
-      <c r="D116" s="117"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="117"/>
+      <c r="A116" s="118"/>
+      <c r="B116" s="118"/>
+      <c r="C116" s="118"/>
+      <c r="D116" s="118"/>
+      <c r="E116" s="118"/>
+      <c r="F116" s="118"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="117"/>
-      <c r="B117" s="117"/>
-      <c r="C117" s="117"/>
-      <c r="D117" s="117"/>
-      <c r="E117" s="117"/>
-      <c r="F117" s="117"/>
+      <c r="A117" s="118"/>
+      <c r="B117" s="118"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="118"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="117"/>
-      <c r="B118" s="117"/>
-      <c r="C118" s="117"/>
-      <c r="D118" s="117"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="117"/>
+      <c r="A118" s="118"/>
+      <c r="B118" s="118"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="118"/>
+      <c r="E118" s="118"/>
+      <c r="F118" s="118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="117"/>
-      <c r="B119" s="117"/>
-      <c r="C119" s="117"/>
-      <c r="D119" s="117"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="117"/>
+      <c r="A119" s="118"/>
+      <c r="B119" s="118"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="118"/>
+      <c r="E119" s="118"/>
+      <c r="F119" s="118"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="117"/>
-      <c r="B120" s="117"/>
-      <c r="C120" s="117"/>
-      <c r="D120" s="117"/>
-      <c r="E120" s="117"/>
-      <c r="F120" s="117"/>
+      <c r="A120" s="118"/>
+      <c r="B120" s="118"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="118"/>
+      <c r="E120" s="118"/>
+      <c r="F120" s="118"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="117"/>
-      <c r="B121" s="117"/>
-      <c r="C121" s="117"/>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
-      <c r="F121" s="117"/>
+      <c r="A121" s="118"/>
+      <c r="B121" s="118"/>
+      <c r="C121" s="118"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="118"/>
+      <c r="F121" s="118"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="117"/>
-      <c r="B122" s="117"/>
-      <c r="C122" s="117"/>
-      <c r="D122" s="117"/>
-      <c r="E122" s="117"/>
-      <c r="F122" s="117"/>
+      <c r="A122" s="118"/>
+      <c r="B122" s="118"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="118"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="118"/>
+      <c r="B123" s="118"/>
+      <c r="C123" s="118"/>
+      <c r="D123" s="118"/>
+      <c r="E123" s="118"/>
+      <c r="F123" s="118"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="117"/>
+      <c r="A124" s="118"/>
+      <c r="B124" s="118"/>
+      <c r="C124" s="118"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
+      <c r="F124" s="118"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="117"/>
+      <c r="A125" s="118"/>
+      <c r="B125" s="118"/>
+      <c r="C125" s="118"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
+      <c r="F125" s="118"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="117"/>
+      <c r="A126" s="118"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
+      <c r="F126" s="118"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="117"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="117"/>
+      <c r="A127" s="118"/>
+      <c r="B127" s="118"/>
+      <c r="C127" s="118"/>
+      <c r="D127" s="118"/>
+      <c r="E127" s="118"/>
+      <c r="F127" s="118"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="117"/>
+      <c r="A129" s="118"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="117"/>
+      <c r="A130" s="118"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="117"/>
+      <c r="A131" s="118"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="118"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="118"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="118"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="118"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="118"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E18 H13:K19 H5:K10 N5:Q20" xr:uid="{7FDA81A1-E629-4A79-BD80-3AB2E916F467}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E18 N5:Q20 H5:K19" xr:uid="{7FDA81A1-E629-4A79-BD80-3AB2E916F467}">
       <formula1>"✔, 🗶, ✗, ✘, ☐, ☑, ☒,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3994,7 +4208,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="149" id="{2A577F61-EA19-43A1-BBBA-7F4063F334D3}">
+          <x14:cfRule type="iconSet" priority="178" id="{2A577F61-EA19-43A1-BBBA-7F4063F334D3}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4013,7 +4227,7 @@
           <xm:sqref>D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="148" id="{DC37063E-4ED9-48FD-A975-3F082FC09D28}">
+          <x14:cfRule type="iconSet" priority="177" id="{DC37063E-4ED9-48FD-A975-3F082FC09D28}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4032,7 +4246,7 @@
           <xm:sqref>D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="146" id="{F02721B4-9CA8-41DE-BDBF-E3831A7B87FF}">
+          <x14:cfRule type="iconSet" priority="175" id="{F02721B4-9CA8-41DE-BDBF-E3831A7B87FF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4051,7 +4265,7 @@
           <xm:sqref>D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="147" id="{D03E5F82-3394-4E01-BB73-E3BB542B077B}">
+          <x14:cfRule type="iconSet" priority="176" id="{D03E5F82-3394-4E01-BB73-E3BB542B077B}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4070,7 +4284,7 @@
           <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="145" id="{3B38A1B8-30C9-405B-9EE1-8BF08E6E5648}">
+          <x14:cfRule type="iconSet" priority="174" id="{3B38A1B8-30C9-405B-9EE1-8BF08E6E5648}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4089,7 +4303,7 @@
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="144" id="{C4BE7E2A-E54D-4B87-A58E-FFCEDF1867DF}">
+          <x14:cfRule type="iconSet" priority="173" id="{C4BE7E2A-E54D-4B87-A58E-FFCEDF1867DF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4108,7 +4322,7 @@
           <xm:sqref>C6:C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="143" id="{226D29B0-E5F9-44A7-A2C0-96FDE78E6274}">
+          <x14:cfRule type="iconSet" priority="172" id="{226D29B0-E5F9-44A7-A2C0-96FDE78E6274}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4127,7 +4341,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="142" id="{CD84585D-319C-4EE1-88AC-2FB4E1BE1E1A}">
+          <x14:cfRule type="iconSet" priority="171" id="{CD84585D-319C-4EE1-88AC-2FB4E1BE1E1A}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4146,7 +4360,7 @@
           <xm:sqref>C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="141" id="{97C9E06A-A53A-4835-9F6A-D53AAE041865}">
+          <x14:cfRule type="iconSet" priority="170" id="{97C9E06A-A53A-4835-9F6A-D53AAE041865}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4165,7 +4379,7 @@
           <xm:sqref>C5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="140" id="{871F2221-458F-407F-8CD2-D1DB14C95B8E}">
+          <x14:cfRule type="iconSet" priority="169" id="{871F2221-458F-407F-8CD2-D1DB14C95B8E}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4184,7 +4398,7 @@
           <xm:sqref>C16:C17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="139" id="{E69388BB-3855-4F47-A802-320088A25E3F}">
+          <x14:cfRule type="iconSet" priority="168" id="{E69388BB-3855-4F47-A802-320088A25E3F}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4203,7 +4417,7 @@
           <xm:sqref>C12:C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="138" id="{E28E4DB8-8044-4EEF-A6AD-F88F84FC7456}">
+          <x14:cfRule type="iconSet" priority="167" id="{E28E4DB8-8044-4EEF-A6AD-F88F84FC7456}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4222,7 +4436,7 @@
           <xm:sqref>C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="78" id="{6E0BD7BA-3B45-4029-B64F-8EC1982EA37F}">
+          <x14:cfRule type="iconSet" priority="107" id="{6E0BD7BA-3B45-4029-B64F-8EC1982EA37F}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4241,7 +4455,7 @@
           <xm:sqref>K8 K10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="77" id="{721CFB8B-3159-4569-A9EB-A01BEA209BB8}">
+          <x14:cfRule type="iconSet" priority="106" id="{721CFB8B-3159-4569-A9EB-A01BEA209BB8}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4260,7 +4474,7 @@
           <xm:sqref>K5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="76" id="{87C5B9F7-18B4-4311-B7EE-4F65817B7E62}">
+          <x14:cfRule type="iconSet" priority="105" id="{87C5B9F7-18B4-4311-B7EE-4F65817B7E62}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4279,7 +4493,7 @@
           <xm:sqref>K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="75" id="{4846C778-EBC8-48C5-8BE1-DC2A6936D146}">
+          <x14:cfRule type="iconSet" priority="104" id="{4846C778-EBC8-48C5-8BE1-DC2A6936D146}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4298,7 +4512,7 @@
           <xm:sqref>K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="74" id="{DE4480B7-EED2-4DF2-8EA9-6F4836043916}">
+          <x14:cfRule type="iconSet" priority="103" id="{DE4480B7-EED2-4DF2-8EA9-6F4836043916}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4317,7 +4531,7 @@
           <xm:sqref>K6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="73" id="{9E71A322-A049-46A9-9431-74B1E6DD5C75}">
+          <x14:cfRule type="iconSet" priority="102" id="{9E71A322-A049-46A9-9431-74B1E6DD5C75}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4336,7 +4550,1489 @@
           <xm:sqref>K7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="60" id="{ED642B6A-0405-4A9C-A8F4-94C427B2111D}">
+          <x14:cfRule type="iconSet" priority="101" id="{6546826A-99DE-462C-ABB8-78B3F9194DA3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="100" id="{A0ABB621-A1C8-46EA-A1A6-0170BECC1602}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="98" id="{38D68707-37FC-403C-B58D-511402AC614D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="99" id="{74495E70-89EA-4E1F-BA43-BCF6D0568E09}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="97" id="{FD5E5EF1-FF1F-424D-9A6A-ECB82FA59F0C}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="96" id="{E458919C-24D0-437E-B652-1294AD27FE38}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I6:I8 I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="95" id="{EF1A9DAE-8A2F-4BFA-A172-415085F0C5E6}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="94" id="{D3BC272B-E42F-4237-B7A8-F1E294AE8445}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="93" id="{C5A120CE-A1C2-4A8D-8D00-F2B28F51EE99}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="92" id="{3CB4AD0F-414F-466E-A1C2-DDD628A084F7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="91" id="{7BA4405C-85B2-401F-AD33-CE67C9FAF30F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="90" id="{6EC72338-18EA-4732-A95B-75FD46EAF6AF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="88" id="{DB913234-1C84-43D5-B425-32D4DBFF6FD0}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="86" id="{98C1B69A-04A1-4D2A-B62A-23083C9745F8}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="85" id="{7EDE30AE-1F37-4EA2-92FC-2F32BF540B38}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="82" id="{48E8F60F-44B9-47B9-A3BC-142A4775A3C9}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14 I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="80" id="{4271AE60-FAB3-4760-AC3E-F5350C4C3ACF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="78" id="{02A04802-54AB-4CB0-8C93-DCA541DBED60}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="77" id="{CCA7E0E4-AEB4-43F2-8191-F019DA02B714}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="76" id="{075688E6-1FA7-48FA-A798-F5B819074DFE}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="201" id="{D4F5EA2B-BCD9-4D4C-BFA7-45CFA3E203F3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E8:E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="202" id="{EB9AB4F4-0C2D-4B0F-B6E4-8A069C928A50}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="203" id="{CE15FF2D-CA19-42D5-A632-3184BB202455}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E16:E17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="204" id="{051553CB-2F0B-48F4-98B3-5993B9E8BD25}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E14:E15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="205" id="{C131B104-2EC9-49C7-9632-57FD27701900}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="206" id="{616A187D-1154-4B4B-9645-F5A67412E802}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="207" id="{0AF1E9DB-867E-4B9C-AFB0-50A2679C2C7E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="208" id="{91E0A717-129C-45EE-B5C5-034A81F5E63E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="209" id="{AB20CA65-9EE2-4727-B682-43A7D42B7833}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="210" id="{ACCAEDF9-0B12-4326-8D30-2FC21EC99A15}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="75" id="{1716496F-390B-461A-AF01-23F3BCCBD0C9}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="74" id="{E8246600-E297-4531-BA39-FF49E5415E41}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="69" id="{87217C31-A38F-43C8-B964-A1AB50F2CDA0}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="73" id="{8C80A25F-140D-4D4E-8CA6-3C8BF43A1E8F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="72" id="{AC1D56D4-8FB6-4848-81B6-3672D052EB44}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="71" id="{4724898F-B228-4417-8296-1B327280D1C8}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="70" id="{7B51D762-FD85-4428-9789-8552AA0278E1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q8:Q9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="68" id="{A7388D89-99B4-4EA7-A63E-9855EFE9BFF1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="67" id="{3F087F6E-82C6-4E7B-A404-DB5F41F8B42E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="66" id="{9BBB432B-A8D1-4BD3-80E6-DB9F7A6F3FB4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="64" id="{E755992E-8D11-41BA-9F54-4887B3D57A95}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="65" id="{38B59A94-269F-4124-AFDA-4D52DE8B2E8E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="63" id="{98BC75E8-07F3-4916-B45E-9C0986257D88}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="62" id="{8C9E26DD-17F3-4290-B62F-0ABCE226B0CD}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O6:O9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="61" id="{912B2A16-334D-47B7-9FA1-0F11AAC90B4B}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="60" id="{47959B82-F793-432B-ADB3-249C7CF92380}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="59" id="{BE4FD995-1214-41D5-9ACD-D61E8D059FD7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="58" id="{D3980FF1-2299-46C9-9747-C52C7B25B727}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="57" id="{47B6ADEF-EA99-4B12-9428-4E6C4C2713A3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="52" id="{10951062-12D4-4426-9ACC-9481A397AA03}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="56" id="{91D2F304-AA61-411A-A36D-7C148063F997}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="55" id="{2C07619B-27F1-4377-88AC-781E27FEB4DF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="54" id="{33AD3B72-C179-4C00-9F38-A9440FA08241}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="53" id="{001AFB73-19F4-49F5-B97D-3531706C443A}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q15:Q16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="51" id="{E472C77D-484D-4A01-B80A-4EC0D17DC3C8}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="50" id="{305A369E-E4AE-47E3-81D7-3AB008C5C36F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="49" id="{02A89CAF-2669-46FE-961E-0999DFB6958F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="47" id="{5EFF1267-FB0C-4F71-8F09-8CA766AD3655}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="48" id="{6DDCE232-44DE-401A-AD5D-DAD70628A6CF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="46" id="{8C72577B-A9A3-47CF-8740-83FAAA75A652}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="45" id="{284969BA-254D-4FDC-92A1-5472B15EFAD7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O13:O16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="44" id="{0DAEC815-C3AC-442F-92A3-DF8799681920}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="43" id="{08240CB0-2082-4CCF-8AC7-BF30569ABB30}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="42" id="{699BDF59-541A-48A8-848A-54B1106B8BD5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="41" id="{7E5E4661-CD5E-4B2E-A320-0C235AFA1A10}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="40" id="{81403752-0B45-493A-81C1-3F91643D9EFD}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="39" id="{483AC35E-02F4-4194-8112-94E441CC2A52}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="38" id="{F49CD4EB-54C9-4D08-974D-F4854D52697B}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="37" id="{5BBF7D87-99BD-426C-8061-1EA66AEBFBB6}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="29" id="{D3095D47-5199-45C9-9010-BEA22A2C8DF5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K11 K13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="28" id="{8B165B42-1C8B-4AF7-80F2-64030886E45E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="27" id="{36C5D7EB-FD78-4681-AB8B-52BE9562FA75}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I11 I13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="26" id="{8E165D25-2609-47A2-85D6-92CB962CAF63}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{B7529277-80DC-40A2-8C4D-29D8BE1A7544}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{3B0924B6-EE21-4CCD-9D2D-0371B0214A1C}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{7C1A58D7-1E8B-4ACE-A366-36E20CC9AC70}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{148EF452-74C9-45E6-B4D8-B19B9C28959D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{624C3507-E4A9-4208-9722-06E31DA7A056}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{8DA510A0-2BBF-46CE-81E8-2AA48C33C5D8}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4355,254 +6051,45 @@
           <xm:sqref>K13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="72" id="{6546826A-99DE-462C-ABB8-78B3F9194DA3}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="71" id="{A0ABB621-A1C8-46EA-A1A6-0170BECC1602}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="69" id="{38D68707-37FC-403C-B58D-511402AC614D}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="70" id="{74495E70-89EA-4E1F-BA43-BCF6D0568E09}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="68" id="{FD5E5EF1-FF1F-424D-9A6A-ECB82FA59F0C}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{E458919C-24D0-437E-B652-1294AD27FE38}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I6:I8 I10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{EF1A9DAE-8A2F-4BFA-A172-415085F0C5E6}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{D3BC272B-E42F-4237-B7A8-F1E294AE8445}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="64" id="{C5A120CE-A1C2-4A8D-8D00-F2B28F51EE99}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="63" id="{3CB4AD0F-414F-466E-A1C2-DDD628A084F7}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="62" id="{7BA4405C-85B2-401F-AD33-CE67C9FAF30F}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="61" id="{6EC72338-18EA-4732-A95B-75FD46EAF6AF}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K16:K17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="59" id="{DB913234-1C84-43D5-B425-32D4DBFF6FD0}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="58" id="{D0DDA924-7352-40DF-A6A6-EEB8479ADCBA}">
+          <x14:cfRule type="iconSet" priority="19" id="{CDAC2E99-63F6-43E1-A4ED-3F37BA9636A3}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{F183F30A-B6AE-45BA-A389-E04F4759E959}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{33104199-55A7-4A83-A336-07CA6FC45AD4}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4621,26 +6108,7 @@
           <xm:sqref>K15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{98C1B69A-04A1-4D2A-B62A-23083C9745F8}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="55" id="{48CDF254-ACBD-48B3-84AA-B81F70CDFF8E}">
+          <x14:cfRule type="iconSet" priority="16" id="{7A7954D7-A67B-4833-AE2F-F95B7B935359}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4659,64 +6127,7 @@
           <xm:sqref>J15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="56" id="{7EDE30AE-1F37-4EA2-92FC-2F32BF540B38}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{16E0844C-8378-4C8C-95DC-7A36FDF44861}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{48E8F60F-44B9-47B9-A3BC-142A4775A3C9}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I14:I17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{B509F2E2-B793-455F-80BE-020E37B5A8E6}">
+          <x14:cfRule type="iconSet" priority="15" id="{E239B7A1-BAEF-40D2-98D6-00AAC4CD1145}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4735,1030 +6146,137 @@
           <xm:sqref>I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="51" id="{4271AE60-FAB3-4760-AC3E-F5350C4C3ACF}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{8143EB81-6383-4152-AFF2-EE336B6AE3F1}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{02A04802-54AB-4CB0-8C93-DCA541DBED60}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{CCA7E0E4-AEB4-43F2-8191-F019DA02B714}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="47" id="{075688E6-1FA7-48FA-A798-F5B819074DFE}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="172" id="{D4F5EA2B-BCD9-4D4C-BFA7-45CFA3E203F3}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E8:E10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="173" id="{EB9AB4F4-0C2D-4B0F-B6E4-8A069C928A50}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="174" id="{CE15FF2D-CA19-42D5-A632-3184BB202455}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E16:E17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="175" id="{051553CB-2F0B-48F4-98B3-5993B9E8BD25}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E14:E15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="176" id="{C131B104-2EC9-49C7-9632-57FD27701900}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="177" id="{616A187D-1154-4B4B-9645-F5A67412E802}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="178" id="{0AF1E9DB-867E-4B9C-AFB0-50A2679C2C7E}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="179" id="{91E0A717-129C-45EE-B5C5-034A81F5E63E}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="180" id="{AB20CA65-9EE2-4727-B682-43A7D42B7833}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="181" id="{ACCAEDF9-0B12-4326-8D30-2FC21EC99A15}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{1716496F-390B-461A-AF01-23F3BCCBD0C9}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{E8246600-E297-4531-BA39-FF49E5415E41}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{87217C31-A38F-43C8-B964-A1AB50F2CDA0}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{8C80A25F-140D-4D4E-8CA6-3C8BF43A1E8F}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{AC1D56D4-8FB6-4848-81B6-3672D052EB44}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{4724898F-B228-4417-8296-1B327280D1C8}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{7B51D762-FD85-4428-9789-8552AA0278E1}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q8:Q9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{A7388D89-99B4-4EA7-A63E-9855EFE9BFF1}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{3F087F6E-82C6-4E7B-A404-DB5F41F8B42E}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{9BBB432B-A8D1-4BD3-80E6-DB9F7A6F3FB4}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{E755992E-8D11-41BA-9F54-4887B3D57A95}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{38B59A94-269F-4124-AFDA-4D52DE8B2E8E}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{98BC75E8-07F3-4916-B45E-9C0986257D88}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{8C9E26DD-17F3-4290-B62F-0ABCE226B0CD}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O6:O9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{912B2A16-334D-47B7-9FA1-0F11AAC90B4B}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{47959B82-F793-432B-ADB3-249C7CF92380}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{BE4FD995-1214-41D5-9ACD-D61E8D059FD7}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{D3980FF1-2299-46C9-9747-C52C7B25B727}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{47B6ADEF-EA99-4B12-9428-4E6C4C2713A3}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{10951062-12D4-4426-9ACC-9481A397AA03}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{91D2F304-AA61-411A-A36D-7C148063F997}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{2C07619B-27F1-4377-88AC-781E27FEB4DF}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{33AD3B72-C179-4C00-9F38-A9440FA08241}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{001AFB73-19F4-49F5-B97D-3531706C443A}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q15:Q16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{E472C77D-484D-4A01-B80A-4EC0D17DC3C8}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{305A369E-E4AE-47E3-81D7-3AB008C5C36F}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{02A89CAF-2669-46FE-961E-0999DFB6958F}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{5EFF1267-FB0C-4F71-8F09-8CA766AD3655}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{6DDCE232-44DE-401A-AD5D-DAD70628A6CF}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{8C72577B-A9A3-47CF-8740-83FAAA75A652}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{284969BA-254D-4FDC-92A1-5472B15EFAD7}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O13:O16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{0DAEC815-C3AC-442F-92A3-DF8799681920}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{08240CB0-2082-4CCF-8AC7-BF30569ABB30}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{699BDF59-541A-48A8-848A-54B1106B8BD5}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{7E5E4661-CD5E-4B2E-A320-0C235AFA1A10}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{81403752-0B45-493A-81C1-3F91643D9EFD}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{483AC35E-02F4-4194-8112-94E441CC2A52}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{F49CD4EB-54C9-4D08-974D-F4854D52697B}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{5BBF7D87-99BD-426C-8061-1EA66AEBFBB6}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O20</xm:sqref>
+          <x14:cfRule type="iconSet" priority="14" id="{1AFC5CF7-D5DF-4260-9DD1-2BB24C46F486}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{F8C25213-2CEF-448F-9FDF-7D14202D7717}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{516AA76C-6E48-42AD-9553-44AA6E78AF77}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{BA7EC40C-9515-426D-9E02-D0792F0C6529}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{5030D48D-FC69-4F11-9AFA-4911BF732258}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{043BA940-FB66-493E-8204-CBED885B5613}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{E093B40D-99F9-448F-945B-C43CE1478E69}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Final Paper/Comparison Table.xlsx
+++ b/Final Paper/Comparison Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07c9239cf8ef362/4th Year Sem2/EG4012/Matlab GUI Thesis/Matlab-GUI-Thesis/Final Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="5317D6875B4462F98844B3014096D562A4FC8AAC" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{192F9621-C943-44C6-B717-43DA50ED0B3E}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="5317D6875B4462F98844B3014096D562A4FC8AAC" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{4C15C5F7-28AC-481E-81B2-4C2FC6DE9897}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2307,8 +2307,8 @@
   </sheetPr>
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3378,7 +3378,9 @@
       <c r="A40" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="118"/>
+      <c r="B40" s="118">
+        <v>19.2</v>
+      </c>
       <c r="C40" s="118"/>
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
@@ -3389,7 +3391,9 @@
       <c r="A41" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="118"/>
+      <c r="B41" s="118">
+        <v>24.68</v>
+      </c>
       <c r="C41" s="118"/>
       <c r="D41" s="118"/>
       <c r="E41" s="118"/>
@@ -3400,7 +3404,9 @@
       <c r="A42" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="118"/>
+      <c r="B42" s="118">
+        <v>10</v>
+      </c>
       <c r="C42" s="118"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
@@ -3411,7 +3417,9 @@
       <c r="A43" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="118"/>
+      <c r="B43" s="118">
+        <v>6.45</v>
+      </c>
       <c r="C43" s="118"/>
       <c r="D43" s="118"/>
       <c r="E43" s="118"/>
@@ -3422,7 +3430,9 @@
       <c r="A44" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="118"/>
+      <c r="B44" s="118">
+        <v>5.3259999999999996</v>
+      </c>
       <c r="C44" s="118"/>
       <c r="D44" s="118"/>
       <c r="E44" s="118"/>
@@ -3433,7 +3443,9 @@
       <c r="A45" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="118"/>
+      <c r="B45" s="118">
+        <v>0.29599999999999999</v>
+      </c>
       <c r="C45" s="118"/>
       <c r="D45" s="118"/>
       <c r="E45" s="118"/>
@@ -3444,7 +3456,9 @@
       <c r="A46" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="118"/>
+      <c r="B46" s="118">
+        <v>0.499</v>
+      </c>
       <c r="C46" s="118"/>
       <c r="D46" s="118"/>
       <c r="E46" s="118"/>
@@ -3455,7 +3469,9 @@
       <c r="A47" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="118"/>
+      <c r="B47" s="118">
+        <v>5.556</v>
+      </c>
       <c r="C47" s="118"/>
       <c r="D47" s="118"/>
       <c r="E47" s="118"/>
